--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/主营业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>857.2474999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3573.02706</v>
-      </c>
-      <c r="D2" t="n">
-        <v>200.81171</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.37888</v>
-      </c>
-      <c r="F2" t="n">
-        <v>60.94511</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2753.29924</v>
-      </c>
-      <c r="H2" t="n">
-        <v>662.1964400000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>853.83492</v>
-      </c>
-      <c r="J2" t="n">
-        <v>228.30103</v>
-      </c>
-      <c r="K2" t="n">
-        <v>42203.12</v>
-      </c>
-      <c r="L2" t="n">
-        <v>223.07126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>22.01704</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37.35835</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1119.37561</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1118.72912</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>173.14547</v>
-      </c>
-      <c r="R2" t="n">
-        <v>135.03538</v>
-      </c>
-      <c r="S2" t="n">
-        <v>93.66712</v>
-      </c>
-      <c r="T2" t="n">
-        <v>107.78517</v>
-      </c>
-      <c r="U2" t="n">
-        <v>244.96224</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1406.71846</v>
-      </c>
-      <c r="W2" t="n">
-        <v>184.22531</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1003.31028</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>6202.4655</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2774.97373</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>907.31011</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>44.4354</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4181.96381</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2835.63489</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1606.22696</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>269.98166</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>425.05935</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>299.37708</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1056.00385</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>117.03736</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>401.03536</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1247.48402</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>827.55465</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3677.84051</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>60.73818</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>819.8550300000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4206.33056</v>
-      </c>
-      <c r="D3" t="n">
-        <v>189.65561</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.20355</v>
-      </c>
-      <c r="F3" t="n">
-        <v>61.73805</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2907.74967</v>
-      </c>
-      <c r="H3" t="n">
-        <v>414.80781</v>
-      </c>
-      <c r="I3" t="n">
-        <v>922.437</v>
-      </c>
-      <c r="J3" t="n">
-        <v>252.52625</v>
-      </c>
-      <c r="K3" t="n">
-        <v>44443.52</v>
-      </c>
-      <c r="L3" t="n">
-        <v>248.13616</v>
-      </c>
-      <c r="M3" t="n">
-        <v>22.92547</v>
-      </c>
-      <c r="N3" t="n">
-        <v>38.534</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1206.0826</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1139.75365</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>172.51027</v>
-      </c>
-      <c r="R3" t="n">
-        <v>141.73379</v>
-      </c>
-      <c r="S3" t="n">
-        <v>97.42121</v>
-      </c>
-      <c r="T3" t="n">
-        <v>91.46095</v>
-      </c>
-      <c r="U3" t="n">
-        <v>271.91743</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1736.97995</v>
-      </c>
-      <c r="W3" t="n">
-        <v>200.16783</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1271.39737</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7094.46621</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2915.84436</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>904.80641</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>70.33624</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4195.94567</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2537.15225</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1409.94832</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>281.29026</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>427.19023</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>312.28978</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>991.15688</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>127.28157</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>400.58785</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1120.74897</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>831.25305</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4122.17137</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>71.07131</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>948.4777</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5225.62734</v>
-      </c>
-      <c r="D4" t="n">
-        <v>198.82549</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.22604</v>
-      </c>
-      <c r="F4" t="n">
-        <v>74.49256</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3062.10826</v>
-      </c>
-      <c r="H4" t="n">
-        <v>396.43343</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1015.01187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>249.95048</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47844.21</v>
-      </c>
-      <c r="L4" t="n">
-        <v>223.41999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23.22759</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36.87957</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1458.99108</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1187.89819</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>185.79624</v>
-      </c>
-      <c r="R4" t="n">
-        <v>122.94591</v>
-      </c>
-      <c r="S4" t="n">
-        <v>100.5104</v>
-      </c>
-      <c r="T4" t="n">
-        <v>91.0488</v>
-      </c>
-      <c r="U4" t="n">
-        <v>278.71136</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1968.98065</v>
-      </c>
-      <c r="W4" t="n">
-        <v>254.65159</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1628.03854</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8041.38753</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2756.0608</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>903.08143</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>41.75303</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4289.68274</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2511.00663</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1344.90845</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>300.0171</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>462.53692</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>301.75112</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1019.08065</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>143.0796</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>425.28115</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1056.01798</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>832.48604</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4356.18768</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>83.84854</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
